--- a/biology/Zoologie/Glaucopsyche_argali/Glaucopsyche_argali.xlsx
+++ b/biology/Zoologie/Glaucopsyche_argali/Glaucopsyche_argali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaucopsyche argali est un insecte lépidoptère de la famille des Lycaenidae, de la sous-famille des Polyommatinae, du genre Glaucopsyche.
 </t>
@@ -511,15 +523,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Glaucopsyche argali a été nommé par Elwes en 1899.
-Synonymes : Lycaena argali Elwes, 1899[1].
-Noms vernaculaires
-Il se nomme en anglais Arrowhead  Blue.
-Sous-espèces
-Glaucopsyche argali argali dans le sud-est de l'Altaï
-Glaucopsyche argali arkhar (Lukhtanov, 1990)dans l'Altaï[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glaucopsyche argali a été nommé par Elwes en 1899.
+Synonymes : Lycaena argali Elwes, 1899.
+</t>
         </is>
       </c>
     </row>
@@ -544,10 +554,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme en anglais Arrowhead  Blue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glaucopsyche_argali</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaucopsyche_argali</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Glaucopsyche argali argali dans le sud-est de l'Altaï
+Glaucopsyche argali arkhar (Lukhtanov, 1990)dans l'Altaï.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glaucopsyche_argali</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaucopsyche_argali</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit papillon bleu argenté bordé de marron violacé et à suffusion basale bleu marine.
 Le revers est ocre beige avec une partie basale foncée presque noire surtout importante aux postérieures et une ornementation sous forme de ligne submarginale de grosse taches noires de formes diverses aux antérieures et de ligne médiane de points noirs aux postérieures.
@@ -555,69 +641,109 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Glaucopsyche_argali</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Glaucopsyche_argali</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Plantes hôtes
-Les plantes hôtes de sa chenilles sont des Oxytropis[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenilles sont des Oxytropis.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Glaucopsyche_argali</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Glaucopsyche_argali</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est présent en Asie, en Mongolie et dans l'Altaï.
-Biotope
-Protection
-Glaucopsyche argali est inscrit sur le Red Data Book de Russie[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Glaucopsyche_argali</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaucopsyche_argali</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glaucopsyche argali est inscrit sur le Red Data Book de Russie.
 </t>
         </is>
       </c>
